--- a/data/pca/factorExposure/factorExposure_2017-10-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0236166976718124</v>
+        <v>-0.0152936680589375</v>
       </c>
       <c r="C2">
-        <v>0.004413012596444477</v>
+        <v>-0.03831482269604643</v>
       </c>
       <c r="D2">
-        <v>0.01863172363442321</v>
+        <v>0.02840948952173071</v>
       </c>
       <c r="E2">
-        <v>0.01410060498810906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03193606637293631</v>
+      </c>
+      <c r="F2">
+        <v>-0.02201656473329551</v>
+      </c>
+      <c r="G2">
+        <v>-0.0176042708684479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01231338931168222</v>
+        <v>-0.05398595233556838</v>
       </c>
       <c r="C3">
-        <v>0.04419278750404497</v>
+        <v>-0.0776668350930767</v>
       </c>
       <c r="D3">
-        <v>0.02224138847456916</v>
+        <v>0.01515643292983389</v>
       </c>
       <c r="E3">
-        <v>0.01166460019429622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09934554060409774</v>
+      </c>
+      <c r="F3">
+        <v>-0.05317906573832325</v>
+      </c>
+      <c r="G3">
+        <v>-0.07392121033407115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02224727188034009</v>
+        <v>-0.05525332913057227</v>
       </c>
       <c r="C4">
-        <v>0.01532862232812782</v>
+        <v>-0.0635522548524608</v>
       </c>
       <c r="D4">
-        <v>0.06487826423938094</v>
+        <v>0.02283725701053315</v>
       </c>
       <c r="E4">
-        <v>-0.008645877649167759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009914707262301391</v>
+      </c>
+      <c r="F4">
+        <v>-0.009592015787641399</v>
+      </c>
+      <c r="G4">
+        <v>-0.04471746513498067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01513279944039974</v>
+        <v>-0.03201074176762255</v>
       </c>
       <c r="C6">
-        <v>0.02306472408861552</v>
+        <v>-0.05346660665252185</v>
       </c>
       <c r="D6">
-        <v>0.08475622307115778</v>
+        <v>0.01626886399799137</v>
       </c>
       <c r="E6">
-        <v>0.006144220085046806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.009009961672529956</v>
+      </c>
+      <c r="F6">
+        <v>-0.01353241980609186</v>
+      </c>
+      <c r="G6">
+        <v>-0.02476277446116706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01045217445578674</v>
+        <v>-0.01964210273412046</v>
       </c>
       <c r="C7">
-        <v>0.006156548872522675</v>
+        <v>-0.03617713984216376</v>
       </c>
       <c r="D7">
-        <v>0.04149054335919344</v>
+        <v>0.01256556454149191</v>
       </c>
       <c r="E7">
-        <v>-0.06656749499776762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01422720548501368</v>
+      </c>
+      <c r="F7">
+        <v>-0.008430643526922438</v>
+      </c>
+      <c r="G7">
+        <v>-0.0767908109808085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-8.226478866433856e-05</v>
+        <v>0.0007390833634821723</v>
       </c>
       <c r="C8">
-        <v>-0.00708806073531187</v>
+        <v>-0.01493289098961033</v>
       </c>
       <c r="D8">
-        <v>0.01960428059814771</v>
+        <v>0.003796719994253657</v>
       </c>
       <c r="E8">
-        <v>-0.002709289676636792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0179706972767184</v>
+      </c>
+      <c r="F8">
+        <v>-0.01283352794646546</v>
+      </c>
+      <c r="G8">
+        <v>-0.02505100258649483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01462620907741979</v>
+        <v>-0.02848747728233283</v>
       </c>
       <c r="C9">
-        <v>0.01512992368368863</v>
+        <v>-0.04309356997672894</v>
       </c>
       <c r="D9">
-        <v>0.04778753224424828</v>
+        <v>0.01585327994935532</v>
       </c>
       <c r="E9">
-        <v>0.0005787507180649848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01238771262470113</v>
+      </c>
+      <c r="F9">
+        <v>-0.01713037051812681</v>
+      </c>
+      <c r="G9">
+        <v>-0.0363353353455045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.008251800609029025</v>
+        <v>-0.09053174301480565</v>
       </c>
       <c r="C10">
-        <v>0.1426153896299164</v>
+        <v>0.1843132750455946</v>
       </c>
       <c r="D10">
-        <v>-0.1303789956614741</v>
+        <v>-0.01853316873840223</v>
       </c>
       <c r="E10">
-        <v>-0.02830044838373849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01791691304852489</v>
+      </c>
+      <c r="F10">
+        <v>0.01222257501209918</v>
+      </c>
+      <c r="G10">
+        <v>-0.04101315293837301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001559529161413354</v>
+        <v>-0.03546555612036505</v>
       </c>
       <c r="C11">
-        <v>0.007131229920145433</v>
+        <v>-0.05399189802150915</v>
       </c>
       <c r="D11">
-        <v>0.04562423039454753</v>
+        <v>0.001734686465419589</v>
       </c>
       <c r="E11">
-        <v>0.01459759880099667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00313956455160239</v>
+      </c>
+      <c r="F11">
+        <v>-0.02216436197486677</v>
+      </c>
+      <c r="G11">
+        <v>-0.01900053197753927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005456561840046422</v>
+        <v>-0.03241597145846511</v>
       </c>
       <c r="C12">
-        <v>0.01524150569584546</v>
+        <v>-0.04592550592925338</v>
       </c>
       <c r="D12">
-        <v>0.04788624031912608</v>
+        <v>0.005762852746712284</v>
       </c>
       <c r="E12">
-        <v>0.006647511029147154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.006264850068747598</v>
+      </c>
+      <c r="F12">
+        <v>-0.006059538161702682</v>
+      </c>
+      <c r="G12">
+        <v>-0.02278770841257063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02122130520379082</v>
+        <v>-0.012936829974347</v>
       </c>
       <c r="C13">
-        <v>0.0147299758015898</v>
+        <v>-0.03109879564536481</v>
       </c>
       <c r="D13">
-        <v>0.01282776554544415</v>
+        <v>0.02479708885580335</v>
       </c>
       <c r="E13">
-        <v>0.00935583718240587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0269584431394944</v>
+      </c>
+      <c r="F13">
+        <v>-0.0129746819893171</v>
+      </c>
+      <c r="G13">
+        <v>-0.03170064772366598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006969940918138565</v>
+        <v>-0.008977818239618268</v>
       </c>
       <c r="C14">
-        <v>0.0158275863026968</v>
+        <v>-0.02647281972958446</v>
       </c>
       <c r="D14">
-        <v>0.01611925022057267</v>
+        <v>0.008362197479623685</v>
       </c>
       <c r="E14">
-        <v>-0.009960799655329401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.006232504449842861</v>
+      </c>
+      <c r="F14">
+        <v>0.0006510740076101814</v>
+      </c>
+      <c r="G14">
+        <v>-0.03859270290371969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0006830611545999114</v>
+        <v>-0.03196143333956566</v>
       </c>
       <c r="C16">
-        <v>0.0126572875974624</v>
+        <v>-0.04465265560724593</v>
       </c>
       <c r="D16">
-        <v>0.0512290210013005</v>
+        <v>0.00135296969277039</v>
       </c>
       <c r="E16">
-        <v>0.009828071828059184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.003904790393883258</v>
+      </c>
+      <c r="F16">
+        <v>-0.006635927456087824</v>
+      </c>
+      <c r="G16">
+        <v>-0.02228216311311192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01233518043602946</v>
+        <v>-0.02945386127382512</v>
       </c>
       <c r="C19">
-        <v>0.0191022515276421</v>
+        <v>-0.05349484915659664</v>
       </c>
       <c r="D19">
-        <v>0.03170809827142417</v>
+        <v>0.01583884787523556</v>
       </c>
       <c r="E19">
-        <v>0.0005290923743575815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0477269718167486</v>
+      </c>
+      <c r="F19">
+        <v>-0.0277500178920579</v>
+      </c>
+      <c r="G19">
+        <v>-0.04200747017270798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01045449724215316</v>
+        <v>-0.01228048717041958</v>
       </c>
       <c r="C20">
-        <v>0.007009867630175988</v>
+        <v>-0.03530299105589294</v>
       </c>
       <c r="D20">
-        <v>0.0137711619716107</v>
+        <v>0.01319316719967274</v>
       </c>
       <c r="E20">
-        <v>0.002789946466024613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02273222677419934</v>
+      </c>
+      <c r="F20">
+        <v>-0.0002230736216727865</v>
+      </c>
+      <c r="G20">
+        <v>-0.03609894864014371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01349609479318402</v>
+        <v>-0.01488194464401146</v>
       </c>
       <c r="C21">
-        <v>0.03440580185559595</v>
+        <v>-0.0337102407682882</v>
       </c>
       <c r="D21">
-        <v>0.01633907738395452</v>
+        <v>0.01618805667238986</v>
       </c>
       <c r="E21">
-        <v>-0.01839300993338999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03361859526028456</v>
+      </c>
+      <c r="F21">
+        <v>-0.009721823916975791</v>
+      </c>
+      <c r="G21">
+        <v>-0.05846630989542798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004639684169716431</v>
+        <v>-0.02615663264659772</v>
       </c>
       <c r="C24">
-        <v>0.007628935294743493</v>
+        <v>-0.04736105277269432</v>
       </c>
       <c r="D24">
-        <v>0.04632190169241679</v>
+        <v>0.006566167740404866</v>
       </c>
       <c r="E24">
-        <v>0.01040448306791348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001909732353492122</v>
+      </c>
+      <c r="F24">
+        <v>-0.01876518208880279</v>
+      </c>
+      <c r="G24">
+        <v>-0.02121205874231897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01094183797967388</v>
+        <v>-0.0433909781441407</v>
       </c>
       <c r="C25">
-        <v>0.0242447818479765</v>
+        <v>-0.05456257767107201</v>
       </c>
       <c r="D25">
-        <v>0.04488528006759916</v>
+        <v>0.0105063583673608</v>
       </c>
       <c r="E25">
-        <v>0.009054310306443126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.009218201506840818</v>
+      </c>
+      <c r="F25">
+        <v>-0.01421157782050117</v>
+      </c>
+      <c r="G25">
+        <v>-0.02694815541441909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02276990459248027</v>
+        <v>-0.009734120678351502</v>
       </c>
       <c r="C26">
-        <v>0.008699462972543802</v>
+        <v>-0.009687870777177039</v>
       </c>
       <c r="D26">
-        <v>-0.002711287760602495</v>
+        <v>0.02372495836689495</v>
       </c>
       <c r="E26">
-        <v>-0.007700587497076855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009167301090642102</v>
+      </c>
+      <c r="F26">
+        <v>-0.002102123663803227</v>
+      </c>
+      <c r="G26">
+        <v>-0.02834776791309385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02498011043745937</v>
+        <v>-0.1167438369708437</v>
       </c>
       <c r="C28">
-        <v>0.211189121037836</v>
+        <v>0.2275267400821627</v>
       </c>
       <c r="D28">
-        <v>-0.1862068930126453</v>
+        <v>-0.009599247207581004</v>
       </c>
       <c r="E28">
-        <v>-0.04397040589896321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.009301177502501654</v>
+      </c>
+      <c r="F28">
+        <v>0.004985483546200676</v>
+      </c>
+      <c r="G28">
+        <v>-0.05796585882022829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007197059439569627</v>
+        <v>-0.01401975477972122</v>
       </c>
       <c r="C29">
-        <v>0.01922086895971607</v>
+        <v>-0.02040867272175046</v>
       </c>
       <c r="D29">
-        <v>0.01332320340910208</v>
+        <v>0.007065436277855133</v>
       </c>
       <c r="E29">
-        <v>-0.005700420768631014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007097951014759131</v>
+      </c>
+      <c r="F29">
+        <v>0.01130430904358233</v>
+      </c>
+      <c r="G29">
+        <v>-0.02878629808598519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02387007957025003</v>
+        <v>-0.04158882394203169</v>
       </c>
       <c r="C30">
-        <v>0.0121681600280615</v>
+        <v>-0.07207657929887987</v>
       </c>
       <c r="D30">
-        <v>0.06394927302777631</v>
+        <v>0.02734935502565254</v>
       </c>
       <c r="E30">
-        <v>0.06678126638331354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02966662867679522</v>
+      </c>
+      <c r="F30">
+        <v>-0.0422240895571909</v>
+      </c>
+      <c r="G30">
+        <v>-0.003531529000420906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.006522283135937808</v>
+        <v>-0.04612862338150435</v>
       </c>
       <c r="C31">
-        <v>0.04857530202687418</v>
+        <v>-0.03062127675627702</v>
       </c>
       <c r="D31">
-        <v>0.03843369405761944</v>
+        <v>0.002865533467106459</v>
       </c>
       <c r="E31">
-        <v>-0.001125047628000889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01083935044137226</v>
+      </c>
+      <c r="F31">
+        <v>0.03702299151054693</v>
+      </c>
+      <c r="G31">
+        <v>-0.02731633589694631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007223447664551595</v>
+        <v>-0.005540673281693295</v>
       </c>
       <c r="C32">
-        <v>0.0117164357961052</v>
+        <v>-0.03469703647164317</v>
       </c>
       <c r="D32">
-        <v>0.01258645487000296</v>
+        <v>-0.004209071838539505</v>
       </c>
       <c r="E32">
-        <v>-0.02284956194651171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02059945899404608</v>
+      </c>
+      <c r="F32">
+        <v>-0.06634774395236616</v>
+      </c>
+      <c r="G32">
+        <v>-0.04914009407834448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01197329180187715</v>
+        <v>-0.02821023676139078</v>
       </c>
       <c r="C33">
-        <v>0.02508375056670492</v>
+        <v>-0.05132233457979715</v>
       </c>
       <c r="D33">
-        <v>0.02304241940086801</v>
+        <v>0.01426874237689753</v>
       </c>
       <c r="E33">
-        <v>0.02725474448741155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02355961738028518</v>
+      </c>
+      <c r="F33">
+        <v>-0.02427025529742926</v>
+      </c>
+      <c r="G33">
+        <v>-0.02918296767019912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005156528700599754</v>
+        <v>-0.04520451052539005</v>
       </c>
       <c r="C34">
-        <v>0.02038543393362995</v>
+        <v>-0.05532370054790901</v>
       </c>
       <c r="D34">
-        <v>0.05012568388071977</v>
+        <v>-0.00553025702582756</v>
       </c>
       <c r="E34">
-        <v>0.0009231535795934229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.00859006781793907</v>
+      </c>
+      <c r="F34">
+        <v>-0.02270988993376286</v>
+      </c>
+      <c r="G34">
+        <v>-0.03293559744173431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01146614946117905</v>
+        <v>-0.01129887362643275</v>
       </c>
       <c r="C36">
-        <v>0.01784470221044456</v>
+        <v>-0.007368386811454344</v>
       </c>
       <c r="D36">
-        <v>0.001845858798571167</v>
+        <v>0.01132355594395419</v>
       </c>
       <c r="E36">
-        <v>-0.002295036199167527</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.002476870826014518</v>
+      </c>
+      <c r="F36">
+        <v>0.002416995845905495</v>
+      </c>
+      <c r="G36">
+        <v>-0.02250418206418821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006493051923886993</v>
+        <v>-0.03364183902410374</v>
       </c>
       <c r="C38">
-        <v>0.02712195388162804</v>
+        <v>-0.02609985247282954</v>
       </c>
       <c r="D38">
-        <v>0.02560235745819524</v>
+        <v>-0.007976972597889258</v>
       </c>
       <c r="E38">
-        <v>0.001259854912558673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00370515698801592</v>
+      </c>
+      <c r="F38">
+        <v>0.001405851472060861</v>
+      </c>
+      <c r="G38">
+        <v>-0.02969867618759383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005998459115545051</v>
+        <v>-0.03211148740121383</v>
       </c>
       <c r="C39">
-        <v>-0.01359217269283056</v>
+        <v>-0.08273200096830685</v>
       </c>
       <c r="D39">
-        <v>0.09724837684232761</v>
+        <v>0.01205645163942021</v>
       </c>
       <c r="E39">
-        <v>0.02081400753257977</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02127472163914583</v>
+      </c>
+      <c r="F39">
+        <v>-0.03633863441377667</v>
+      </c>
+      <c r="G39">
+        <v>-0.0238130768580739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01063081959084389</v>
+        <v>-0.02123141888359239</v>
       </c>
       <c r="C40">
-        <v>0.01642270827175328</v>
+        <v>-0.03087559020703948</v>
       </c>
       <c r="D40">
-        <v>0.04187620678567042</v>
+        <v>0.01309313578061675</v>
       </c>
       <c r="E40">
-        <v>0.01434121349335323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02179794240507303</v>
+      </c>
+      <c r="F40">
+        <v>-0.01742545895736437</v>
+      </c>
+      <c r="G40">
+        <v>-0.02361501123381066</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004850533937303586</v>
+        <v>-0.01215136381902918</v>
       </c>
       <c r="C41">
-        <v>0.01898992786602547</v>
+        <v>0.000939787374491556</v>
       </c>
       <c r="D41">
-        <v>-0.007773704934333405</v>
+        <v>0.003530219373681976</v>
       </c>
       <c r="E41">
-        <v>-0.003783861433741454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003217750573131296</v>
+      </c>
+      <c r="F41">
+        <v>-0.0007434635359363275</v>
+      </c>
+      <c r="G41">
+        <v>-0.01389100571295813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09181521185009554</v>
+        <v>-0.02136789852937251</v>
       </c>
       <c r="C42">
-        <v>0.02202223146036601</v>
+        <v>-0.04951005882110574</v>
       </c>
       <c r="D42">
-        <v>0.215380457651267</v>
+        <v>0.09799048512566418</v>
       </c>
       <c r="E42">
-        <v>0.2895598347019765</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04262405100395053</v>
+      </c>
+      <c r="F42">
+        <v>0.06869366969240928</v>
+      </c>
+      <c r="G42">
+        <v>0.1779743098093193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005616477576168246</v>
+        <v>-0.02841935668324783</v>
       </c>
       <c r="C43">
-        <v>0.02181568263788373</v>
+        <v>-0.008134613804771634</v>
       </c>
       <c r="D43">
-        <v>-0.01180540570864786</v>
+        <v>0.003723798372841291</v>
       </c>
       <c r="E43">
-        <v>-0.0005179521699529779</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00407016361050879</v>
+      </c>
+      <c r="F43">
+        <v>0.001366799002449031</v>
+      </c>
+      <c r="G43">
+        <v>-0.0197674880149665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003138933142606138</v>
+        <v>-0.01646086602910698</v>
       </c>
       <c r="C44">
-        <v>-0.0008357351488579158</v>
+        <v>-0.04789838397391143</v>
       </c>
       <c r="D44">
-        <v>0.02910289221149558</v>
+        <v>0.00653215325373272</v>
       </c>
       <c r="E44">
-        <v>-0.001056074051567322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01596515262340275</v>
+      </c>
+      <c r="F44">
+        <v>-0.01910107299153943</v>
+      </c>
+      <c r="G44">
+        <v>-0.03572509682446705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01051305310091629</v>
+        <v>-0.005650564869143935</v>
       </c>
       <c r="C46">
-        <v>0.01868873186694526</v>
+        <v>-0.0166629604091067</v>
       </c>
       <c r="D46">
-        <v>0.01647578765894056</v>
+        <v>0.01157798492838281</v>
       </c>
       <c r="E46">
-        <v>0.004285656324506089</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0006771787208387313</v>
+      </c>
+      <c r="F46">
+        <v>0.01471187727022789</v>
+      </c>
+      <c r="G46">
+        <v>-0.02631388391656936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0002176646821974078</v>
+        <v>-0.07372395487725457</v>
       </c>
       <c r="C47">
-        <v>0.06211855376722331</v>
+        <v>-0.06385302418672045</v>
       </c>
       <c r="D47">
-        <v>0.04625120434075346</v>
+        <v>-0.005280028563918246</v>
       </c>
       <c r="E47">
-        <v>0.009010591501612117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01757600866942177</v>
+      </c>
+      <c r="F47">
+        <v>0.0591230637710558</v>
+      </c>
+      <c r="G47">
+        <v>-0.02644888906522849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002370805353555292</v>
+        <v>-0.02003528612975912</v>
       </c>
       <c r="C48">
-        <v>0.02547152007935571</v>
+        <v>-0.01042768245256973</v>
       </c>
       <c r="D48">
-        <v>0.0110225673769473</v>
+        <v>0.000818836141872549</v>
       </c>
       <c r="E48">
-        <v>0.001282593556836224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003735989433160465</v>
+      </c>
+      <c r="F48">
+        <v>0.01412112824067475</v>
+      </c>
+      <c r="G48">
+        <v>-0.02666871407167903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001670440694690183</v>
+        <v>-0.0798686659683949</v>
       </c>
       <c r="C50">
-        <v>0.05260834499798592</v>
+        <v>-0.06556004428375169</v>
       </c>
       <c r="D50">
-        <v>0.0605513313916359</v>
+        <v>-0.004222464701571678</v>
       </c>
       <c r="E50">
-        <v>-0.01501012610531287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01945489649552467</v>
+      </c>
+      <c r="F50">
+        <v>0.05432890038029326</v>
+      </c>
+      <c r="G50">
+        <v>-0.04634724489584105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006895117842729111</v>
+        <v>-0.01218638656411347</v>
       </c>
       <c r="C51">
-        <v>0.01793762275260646</v>
+        <v>-0.02850877056712581</v>
       </c>
       <c r="D51">
-        <v>-0.01236788816280687</v>
+        <v>0.008970503083960408</v>
       </c>
       <c r="E51">
-        <v>-0.01061476795901715</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01100542076153233</v>
+      </c>
+      <c r="F51">
+        <v>-0.02937839850034523</v>
+      </c>
+      <c r="G51">
+        <v>-0.04776578280169625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003211232933443285</v>
+        <v>-0.09530139687209459</v>
       </c>
       <c r="C53">
-        <v>0.08590623345401714</v>
+        <v>-0.07931310053791704</v>
       </c>
       <c r="D53">
-        <v>0.09824494579731605</v>
+        <v>-0.005896245104517208</v>
       </c>
       <c r="E53">
-        <v>0.007927743245661091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04213309782076857</v>
+      </c>
+      <c r="F53">
+        <v>0.06425530953148123</v>
+      </c>
+      <c r="G53">
+        <v>-0.02510736731360153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.00171819324234053</v>
+        <v>-0.0296850570872392</v>
       </c>
       <c r="C54">
-        <v>0.0353888302086094</v>
+        <v>-0.006634258784795054</v>
       </c>
       <c r="D54">
-        <v>-0.009457768932552202</v>
+        <v>-0.003419727202456011</v>
       </c>
       <c r="E54">
-        <v>-0.0130753903458603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.004982585896623982</v>
+      </c>
+      <c r="F54">
+        <v>0.001388522434268934</v>
+      </c>
+      <c r="G54">
+        <v>-0.03283351884938678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0009001329114873794</v>
+        <v>-0.07325065094861179</v>
       </c>
       <c r="C55">
-        <v>0.06044357435056801</v>
+        <v>-0.0727569982898076</v>
       </c>
       <c r="D55">
-        <v>0.08591475832770387</v>
+        <v>-0.004915879007992194</v>
       </c>
       <c r="E55">
-        <v>0.01993297432952359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03267918181161698</v>
+      </c>
+      <c r="F55">
+        <v>0.05836147102319177</v>
+      </c>
+      <c r="G55">
+        <v>-0.01114561099019128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0001161979605247464</v>
+        <v>-0.145441440427806</v>
       </c>
       <c r="C56">
-        <v>0.1065187337704554</v>
+        <v>-0.1019189834973621</v>
       </c>
       <c r="D56">
-        <v>0.1297086634891951</v>
+        <v>-0.01415094896388043</v>
       </c>
       <c r="E56">
-        <v>0.02417778401317349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04122810031684736</v>
+      </c>
+      <c r="F56">
+        <v>0.1001998094898234</v>
+      </c>
+      <c r="G56">
+        <v>-0.002832304066292816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02291878301770867</v>
+        <v>-0.01194126716883248</v>
       </c>
       <c r="C57">
-        <v>0.01741767855985124</v>
+        <v>-0.01150053964496339</v>
       </c>
       <c r="D57">
-        <v>0.04106294355528713</v>
+        <v>0.02372157740060771</v>
       </c>
       <c r="E57">
-        <v>0.01601096915630094</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.0300045521702488</v>
+      </c>
+      <c r="F57">
+        <v>-0.01377727572109981</v>
+      </c>
+      <c r="G57">
+        <v>-0.0204414047098565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.009928937306214806</v>
+        <v>-0.06776122514494239</v>
       </c>
       <c r="C58">
-        <v>0.08609747135031438</v>
+        <v>-0.06165698002164203</v>
       </c>
       <c r="D58">
-        <v>0.06283983044627182</v>
+        <v>0.0203270391910225</v>
       </c>
       <c r="E58">
-        <v>0.2158808711508829</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9299110176479993</v>
+      </c>
+      <c r="F58">
+        <v>0.2799572956101403</v>
+      </c>
+      <c r="G58">
+        <v>-0.03120820679148386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02161953373407665</v>
+        <v>-0.1518959621625157</v>
       </c>
       <c r="C59">
-        <v>0.2221257798973486</v>
+        <v>0.210698309525527</v>
       </c>
       <c r="D59">
-        <v>-0.188038709960367</v>
+        <v>-0.01597017544973757</v>
       </c>
       <c r="E59">
-        <v>-0.02029719934042189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01599885262453564</v>
+      </c>
+      <c r="F59">
+        <v>-0.01177086519161938</v>
+      </c>
+      <c r="G59">
+        <v>-0.021479363581534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02823027997819401</v>
+        <v>-0.2909088124121184</v>
       </c>
       <c r="C60">
-        <v>0.1637157745909842</v>
+        <v>-0.09273273855279252</v>
       </c>
       <c r="D60">
-        <v>0.08881254036257602</v>
+        <v>0.009213519938004016</v>
       </c>
       <c r="E60">
-        <v>0.05576822787461713</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02812544641746157</v>
+      </c>
+      <c r="F60">
+        <v>-0.3759132091269996</v>
+      </c>
+      <c r="G60">
+        <v>0.09825810642005761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002930602636252066</v>
+        <v>-0.03325284008776776</v>
       </c>
       <c r="C61">
-        <v>0.01082694478926476</v>
+        <v>-0.06408254229295773</v>
       </c>
       <c r="D61">
-        <v>0.06759486609830542</v>
+        <v>0.005296274719406078</v>
       </c>
       <c r="E61">
-        <v>0.01357146917228727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.0119575631461935</v>
+      </c>
+      <c r="F61">
+        <v>-0.02031247469976886</v>
+      </c>
+      <c r="G61">
+        <v>-0.02330947137207261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007016206515461187</v>
+        <v>-0.0143101405070343</v>
       </c>
       <c r="C63">
-        <v>0.008596350430214015</v>
+        <v>-0.02670827032132677</v>
       </c>
       <c r="D63">
-        <v>0.01197305826541311</v>
+        <v>0.007883352147566915</v>
       </c>
       <c r="E63">
-        <v>-0.005293404388669439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.006523594252239526</v>
+      </c>
+      <c r="F63">
+        <v>0.008239062093103133</v>
+      </c>
+      <c r="G63">
+        <v>-0.03279594859644931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006466949437439777</v>
+        <v>-0.04878483899864289</v>
       </c>
       <c r="C64">
-        <v>0.03529349508972646</v>
+        <v>-0.03734376286624299</v>
       </c>
       <c r="D64">
-        <v>0.06510598993826186</v>
+        <v>0.004734227297357948</v>
       </c>
       <c r="E64">
-        <v>0.01597832153672255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.007808433072447286</v>
+      </c>
+      <c r="F64">
+        <v>-0.00676202229076571</v>
+      </c>
+      <c r="G64">
+        <v>-0.02036633546853586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01749536039892582</v>
+        <v>-0.08172737975054428</v>
       </c>
       <c r="C65">
-        <v>0.02948810574254674</v>
+        <v>-0.06495997966730488</v>
       </c>
       <c r="D65">
-        <v>0.0955526834682273</v>
+        <v>0.01522065136316373</v>
       </c>
       <c r="E65">
-        <v>0.009900733253625414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.007651364209059017</v>
+      </c>
+      <c r="F65">
+        <v>-0.03639817715005453</v>
+      </c>
+      <c r="G65">
+        <v>-0.008954342426961383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005513497831228776</v>
+        <v>-0.05315120129520994</v>
       </c>
       <c r="C66">
-        <v>-0.002942158608390796</v>
+        <v>-0.1161278178097406</v>
       </c>
       <c r="D66">
-        <v>0.1176185449474453</v>
+        <v>0.01151034299954768</v>
       </c>
       <c r="E66">
-        <v>0.03964880711140673</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02314447056034339</v>
+      </c>
+      <c r="F66">
+        <v>-0.04389200430861781</v>
+      </c>
+      <c r="G66">
+        <v>-0.01381190848659795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001698261001075987</v>
+        <v>-0.05713792705306564</v>
       </c>
       <c r="C67">
-        <v>0.04557023470764121</v>
+        <v>-0.03029554009111263</v>
       </c>
       <c r="D67">
-        <v>0.02703245857388957</v>
+        <v>-0.006466623586375802</v>
       </c>
       <c r="E67">
-        <v>0.003335199657445428</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003508548697011928</v>
+      </c>
+      <c r="F67">
+        <v>0.00360739983016874</v>
+      </c>
+      <c r="G67">
+        <v>-0.02814363518230761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.03866863181880141</v>
+        <v>-0.1358187682128305</v>
       </c>
       <c r="C68">
-        <v>0.1882365406045495</v>
+        <v>0.2717229561827413</v>
       </c>
       <c r="D68">
-        <v>-0.1811667887813388</v>
+        <v>0.001842609000981974</v>
       </c>
       <c r="E68">
-        <v>-0.01625422924915357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01625390799618553</v>
+      </c>
+      <c r="F68">
+        <v>0.02096226456184445</v>
+      </c>
+      <c r="G68">
+        <v>-0.02096243035004363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003559080628091739</v>
+        <v>-0.0788300147935916</v>
       </c>
       <c r="C69">
-        <v>0.04995041949290258</v>
+        <v>-0.0646397297502605</v>
       </c>
       <c r="D69">
-        <v>0.05273502303147561</v>
+        <v>-0.009429398549012565</v>
       </c>
       <c r="E69">
-        <v>0.004894388085661451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03430099014941992</v>
+      </c>
+      <c r="F69">
+        <v>0.04149558884473268</v>
+      </c>
+      <c r="G69">
+        <v>-0.02632883967339723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02675231950411914</v>
+        <v>-0.1310445616181112</v>
       </c>
       <c r="C71">
-        <v>0.1683601338067359</v>
+        <v>0.2284307651428566</v>
       </c>
       <c r="D71">
-        <v>-0.1583894663284095</v>
+        <v>-0.007066797608538614</v>
       </c>
       <c r="E71">
-        <v>-0.02493567071045804</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02666513041055147</v>
+      </c>
+      <c r="F71">
+        <v>0.01691310472440899</v>
+      </c>
+      <c r="G71">
+        <v>-0.03400672642101913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002763555177682137</v>
+        <v>-0.08460305203094527</v>
       </c>
       <c r="C72">
-        <v>0.05402696794186704</v>
+        <v>-0.07623631774979868</v>
       </c>
       <c r="D72">
-        <v>0.1369324270795688</v>
+        <v>-0.008898252579960821</v>
       </c>
       <c r="E72">
-        <v>0.04323972785981827</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01449172666519432</v>
+      </c>
+      <c r="F72">
+        <v>-0.03477945268090114</v>
+      </c>
+      <c r="G72">
+        <v>-0.002439172048323752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04134593737057066</v>
+        <v>-0.4024176911317238</v>
       </c>
       <c r="C73">
-        <v>0.1978657041448722</v>
+        <v>-0.1075582400922581</v>
       </c>
       <c r="D73">
-        <v>0.151282807324779</v>
+        <v>0.01376016698024501</v>
       </c>
       <c r="E73">
-        <v>0.1264487332928224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.09447073865558345</v>
+      </c>
+      <c r="F73">
+        <v>-0.5353238830834364</v>
+      </c>
+      <c r="G73">
+        <v>0.1574069777615384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001154820947962279</v>
+        <v>-0.1168139086446471</v>
       </c>
       <c r="C74">
-        <v>0.09782747262537458</v>
+        <v>-0.1172754604442986</v>
       </c>
       <c r="D74">
-        <v>0.1259287013245935</v>
+        <v>-0.01052422580992809</v>
       </c>
       <c r="E74">
-        <v>0.03115119123653815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03970472193337758</v>
+      </c>
+      <c r="F74">
+        <v>0.07034500654321713</v>
+      </c>
+      <c r="G74">
+        <v>-0.02404918884159287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.00058905750892554</v>
+        <v>-0.2593155792021307</v>
       </c>
       <c r="C75">
-        <v>0.2295374976051043</v>
+        <v>-0.1488548636868713</v>
       </c>
       <c r="D75">
-        <v>0.2151165921203867</v>
+        <v>-0.03187612871371669</v>
       </c>
       <c r="E75">
-        <v>0.06188632136655794</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07661021663139152</v>
+      </c>
+      <c r="F75">
+        <v>0.2177305193060913</v>
+      </c>
+      <c r="G75">
+        <v>0.02990005408768798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005658287233826212</v>
+        <v>-0.1365191455482989</v>
       </c>
       <c r="C76">
-        <v>0.1733501096686141</v>
+        <v>-0.1216766622009373</v>
       </c>
       <c r="D76">
-        <v>0.2011461846506122</v>
+        <v>-0.02206791083339988</v>
       </c>
       <c r="E76">
-        <v>0.02568848130181346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0730264143847565</v>
+      </c>
+      <c r="F76">
+        <v>0.1302426436611787</v>
+      </c>
+      <c r="G76">
+        <v>-0.01590166461992752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01207804861539977</v>
+        <v>-0.06243930433064517</v>
       </c>
       <c r="C77">
-        <v>0.01715322912979675</v>
+        <v>-0.06285157883957262</v>
       </c>
       <c r="D77">
-        <v>0.06148104173264635</v>
+        <v>0.01247413385148224</v>
       </c>
       <c r="E77">
-        <v>0.01442084100711725</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05093391344325832</v>
+      </c>
+      <c r="F77">
+        <v>-0.01145498080999495</v>
+      </c>
+      <c r="G77">
+        <v>-0.05242248894999568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004312673879637403</v>
+        <v>-0.0406289098961618</v>
       </c>
       <c r="C78">
-        <v>0.01676306095611622</v>
+        <v>-0.05074499780427336</v>
       </c>
       <c r="D78">
-        <v>0.06331976223865993</v>
+        <v>0.00552138194107419</v>
       </c>
       <c r="E78">
-        <v>0.01067350284128029</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02431564033543357</v>
+      </c>
+      <c r="F78">
+        <v>-0.03809749482214488</v>
+      </c>
+      <c r="G78">
+        <v>-0.03413032569134136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01414845413792404</v>
+        <v>-0.06039848352718695</v>
       </c>
       <c r="C80">
-        <v>0.1481726771514506</v>
+        <v>-0.06863420833180489</v>
       </c>
       <c r="D80">
-        <v>0.2852110208112639</v>
+        <v>0.01207070801889996</v>
       </c>
       <c r="E80">
-        <v>-0.8840024115566905</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0475526387691877</v>
+      </c>
+      <c r="F80">
+        <v>-0.08285915934612877</v>
+      </c>
+      <c r="G80">
+        <v>-0.9138337219316589</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0004786777084739155</v>
+        <v>-0.1439200121881208</v>
       </c>
       <c r="C81">
-        <v>0.1469243525074506</v>
+        <v>-0.09298872307855151</v>
       </c>
       <c r="D81">
-        <v>0.1424710907154289</v>
+        <v>-0.01631705975618233</v>
       </c>
       <c r="E81">
-        <v>0.02957793164059764</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05020680507795567</v>
+      </c>
+      <c r="F81">
+        <v>0.133867551774919</v>
+      </c>
+      <c r="G81">
+        <v>-0.01912036021288764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05336806756117495</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03712029254845551</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002979602524902659</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01920976371275818</v>
+      </c>
+      <c r="F82">
+        <v>0.005871632333239144</v>
+      </c>
+      <c r="G82">
+        <v>0.006977065288947629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006468307665956593</v>
+        <v>-0.0285757768327795</v>
       </c>
       <c r="C83">
-        <v>0.02920600129362488</v>
+        <v>-0.02118069442347319</v>
       </c>
       <c r="D83">
-        <v>0.02588804497014459</v>
+        <v>0.005287365164726041</v>
       </c>
       <c r="E83">
-        <v>0.01159467121716728</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0276828787740849</v>
+      </c>
+      <c r="F83">
+        <v>-0.01718313881457668</v>
+      </c>
+      <c r="G83">
+        <v>-0.02240519653131913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008317541636233725</v>
+        <v>-0.2365579430796551</v>
       </c>
       <c r="C85">
-        <v>0.18272325523456</v>
+        <v>-0.1480820520910377</v>
       </c>
       <c r="D85">
-        <v>0.2233526971232052</v>
+        <v>-0.0207463740289473</v>
       </c>
       <c r="E85">
-        <v>0.06596926268492227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1261657150743161</v>
+      </c>
+      <c r="F85">
+        <v>0.1929013229606359</v>
+      </c>
+      <c r="G85">
+        <v>0.05622264212909722</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005458197830368603</v>
+        <v>-0.01257274237987777</v>
       </c>
       <c r="C86">
-        <v>0.01131078544296385</v>
+        <v>-0.02158106544594949</v>
       </c>
       <c r="D86">
-        <v>0.008694940993389345</v>
+        <v>0.009651518079591975</v>
       </c>
       <c r="E86">
-        <v>0.02052340400512212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03801039701866659</v>
+      </c>
+      <c r="F86">
+        <v>-0.01702898753181621</v>
+      </c>
+      <c r="G86">
+        <v>-0.04912152458339984</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007207215424351453</v>
+        <v>-0.01587378923581394</v>
       </c>
       <c r="C87">
-        <v>0.01425021367738955</v>
+        <v>-0.02824060430749527</v>
       </c>
       <c r="D87">
-        <v>0.03980396480209877</v>
+        <v>0.01183253505695971</v>
       </c>
       <c r="E87">
-        <v>0.01251353146337645</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07998318884465397</v>
+      </c>
+      <c r="F87">
+        <v>-0.03877628618554073</v>
+      </c>
+      <c r="G87">
+        <v>-0.04462933900887106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02572365719794192</v>
+        <v>-0.08926167413232722</v>
       </c>
       <c r="C88">
-        <v>0.04513456547803052</v>
+        <v>-0.06079271491495256</v>
       </c>
       <c r="D88">
-        <v>0.02355816692693871</v>
+        <v>0.02136180993364982</v>
       </c>
       <c r="E88">
-        <v>0.004806023496490841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01767297165035027</v>
+      </c>
+      <c r="F88">
+        <v>0.01879983287226774</v>
+      </c>
+      <c r="G88">
+        <v>-0.02441381987518811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05166220928718498</v>
+        <v>-0.221503801304079</v>
       </c>
       <c r="C89">
-        <v>0.3268996371932694</v>
+        <v>0.367512291924202</v>
       </c>
       <c r="D89">
-        <v>-0.2865442986191469</v>
+        <v>-0.007700336500684865</v>
       </c>
       <c r="E89">
-        <v>-0.02184844212435955</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01524589062435349</v>
+      </c>
+      <c r="F89">
+        <v>0.03034602099154223</v>
+      </c>
+      <c r="G89">
+        <v>-0.03531069067363998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.03860427087100213</v>
+        <v>-0.1903496777340024</v>
       </c>
       <c r="C90">
-        <v>0.2426326707471518</v>
+        <v>0.3355373961316636</v>
       </c>
       <c r="D90">
-        <v>-0.2620830919366562</v>
+        <v>-0.01172243510404278</v>
       </c>
       <c r="E90">
-        <v>-0.01723248392402281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.004530244556682691</v>
+      </c>
+      <c r="F90">
+        <v>0.04414653957002872</v>
+      </c>
+      <c r="G90">
+        <v>0.00237683604607428</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.002279705785458121</v>
+        <v>-0.2056061323052567</v>
       </c>
       <c r="C91">
-        <v>0.1919089609044776</v>
+        <v>-0.137084189583823</v>
       </c>
       <c r="D91">
-        <v>0.2117521280602248</v>
+        <v>-0.02545990514596516</v>
       </c>
       <c r="E91">
-        <v>0.04868518033647801</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09394702728534145</v>
+      </c>
+      <c r="F91">
+        <v>0.1837428935063843</v>
+      </c>
+      <c r="G91">
+        <v>-0.004916172729474842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.005051574370284513</v>
+        <v>-0.2091368514646541</v>
       </c>
       <c r="C92">
-        <v>0.3560979574886785</v>
+        <v>0.2662922932776193</v>
       </c>
       <c r="D92">
-        <v>-0.1609674176317192</v>
+        <v>-0.05351851768831245</v>
       </c>
       <c r="E92">
-        <v>0.0004906360256341438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.006843249185795755</v>
+      </c>
+      <c r="F92">
+        <v>0.1250820571889753</v>
+      </c>
+      <c r="G92">
+        <v>-0.07083893739415041</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03599529772182963</v>
+        <v>-0.2168167164303723</v>
       </c>
       <c r="C93">
-        <v>0.2807538908483991</v>
+        <v>0.3327561353443301</v>
       </c>
       <c r="D93">
-        <v>-0.2648155143974087</v>
+        <v>-0.01867761537334817</v>
       </c>
       <c r="E93">
-        <v>0.005248343456287022</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.004654615003144911</v>
+      </c>
+      <c r="F93">
+        <v>0.02528351134591543</v>
+      </c>
+      <c r="G93">
+        <v>0.001762969952260697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01917141486615</v>
+        <v>-0.2811713294366638</v>
       </c>
       <c r="C94">
-        <v>0.2429540548944231</v>
+        <v>-0.1573820386492978</v>
       </c>
       <c r="D94">
-        <v>0.2008249001389794</v>
+        <v>-0.01504271736276522</v>
       </c>
       <c r="E94">
-        <v>0.09667601094728055</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1396743427513613</v>
+      </c>
+      <c r="F94">
+        <v>0.4022532190682444</v>
+      </c>
+      <c r="G94">
+        <v>0.1147530235630568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006150484800764162</v>
+        <v>-0.08477845402618299</v>
       </c>
       <c r="C95">
-        <v>0.05305916751269375</v>
+        <v>-0.07691084030338795</v>
       </c>
       <c r="D95">
-        <v>0.06128581140961115</v>
+        <v>-0.006949071284665665</v>
       </c>
       <c r="E95">
-        <v>0.1177590966707845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09344300955496625</v>
+      </c>
+      <c r="F95">
+        <v>-0.155612162373223</v>
+      </c>
+      <c r="G95">
+        <v>0.04337613153746862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.004253602511163438</v>
+        <v>-0.2081045403509631</v>
       </c>
       <c r="C98">
-        <v>0.1674982306266688</v>
+        <v>-0.04978693209671171</v>
       </c>
       <c r="D98">
-        <v>0.1111337978695147</v>
+        <v>-0.01600061158999028</v>
       </c>
       <c r="E98">
-        <v>0.08087508755879587</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.08070961521124759</v>
+      </c>
+      <c r="F98">
+        <v>-0.2432420679450332</v>
+      </c>
+      <c r="G98">
+        <v>0.0442436478155656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007037653147037246</v>
+        <v>-0.01386461804889396</v>
       </c>
       <c r="C101">
-        <v>0.01991865378704603</v>
+        <v>-0.02050758788111156</v>
       </c>
       <c r="D101">
-        <v>0.01379194576114985</v>
+        <v>0.006850582851581319</v>
       </c>
       <c r="E101">
-        <v>-0.005778688119169297</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007723498994542511</v>
+      </c>
+      <c r="F101">
+        <v>0.01318095859811297</v>
+      </c>
+      <c r="G101">
+        <v>-0.02889259185486353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01305846663908823</v>
+        <v>-0.1236902757559142</v>
       </c>
       <c r="C102">
-        <v>0.113675734865891</v>
+        <v>-0.08131837333730788</v>
       </c>
       <c r="D102">
-        <v>0.1111833283990991</v>
+        <v>-3.080459317529925e-05</v>
       </c>
       <c r="E102">
-        <v>0.03420382372032617</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03877544180033449</v>
+      </c>
+      <c r="F102">
+        <v>0.05762694213694099</v>
+      </c>
+      <c r="G102">
+        <v>0.006625458668266182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002014164654325336</v>
+        <v>-0.004214526326000129</v>
       </c>
       <c r="C103">
-        <v>0.01643850440736767</v>
+        <v>-0.00556261161413116</v>
       </c>
       <c r="D103">
-        <v>0.02799604956507827</v>
+        <v>0.0006831553480625181</v>
       </c>
       <c r="E103">
-        <v>-0.01052478878693169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0001882984769586756</v>
+      </c>
+      <c r="F103">
+        <v>0.008339351676100214</v>
+      </c>
+      <c r="G103">
+        <v>-0.01870320284328587</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9860934200257222</v>
+        <v>-0.03740725331515437</v>
       </c>
       <c r="C104">
-        <v>-0.09486629058222242</v>
+        <v>0.04342849783560544</v>
       </c>
       <c r="D104">
-        <v>0.002123040537051922</v>
+        <v>0.9864948661462528</v>
       </c>
       <c r="E104">
-        <v>-0.02401392879786306</v>
+        <v>-0.0462504723562649</v>
+      </c>
+      <c r="F104">
+        <v>0.04070628365222834</v>
+      </c>
+      <c r="G104">
+        <v>0.003278683239130508</v>
       </c>
     </row>
   </sheetData>
